--- a/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
+++ b/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apatwary\Documents\Manager_Intel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
     <sheet name="Planning and Execution" sheetId="1" r:id="rId1"/>
@@ -101,9 +101,6 @@
   </si>
   <si>
     <t>WW04</t>
-  </si>
-  <si>
-    <t>WW05</t>
   </si>
   <si>
     <t>Finding the path details report from QOR's WNS</t>
@@ -438,6 +435,9 @@
   </si>
   <si>
     <t>Please let me know if this task is done by now</t>
+  </si>
+  <si>
+    <t>WW01</t>
   </si>
 </sst>
 </file>
@@ -1045,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1108,17 +1108,17 @@
         <v>2</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O2" t="s">
         <v>2</v>
@@ -1138,17 +1138,17 @@
         <v>3</v>
       </c>
       <c r="E3" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O3" t="s">
         <v>3</v>
@@ -1168,17 +1168,17 @@
         <v>4</v>
       </c>
       <c r="E4" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O4" t="s">
         <v>4</v>
@@ -1198,17 +1198,17 @@
         <v>11</v>
       </c>
       <c r="E5" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O5" t="s">
         <v>11</v>
@@ -1228,17 +1228,17 @@
         <v>2</v>
       </c>
       <c r="E6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="O6" t="s">
         <v>5</v>
@@ -1258,17 +1258,17 @@
         <v>3</v>
       </c>
       <c r="E7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
@@ -1285,17 +1285,17 @@
         <v>4</v>
       </c>
       <c r="E8" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
@@ -1312,17 +1312,17 @@
         <v>11</v>
       </c>
       <c r="E9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
@@ -1339,17 +1339,17 @@
         <v>3</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="G10" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
@@ -1366,15 +1366,15 @@
         <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
@@ -1385,21 +1385,21 @@
         <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
@@ -1410,21 +1410,21 @@
         <v>4</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -1435,21 +1435,21 @@
         <v>4</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
@@ -1466,15 +1466,15 @@
         <v>3</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
@@ -1660,7 +1660,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
@@ -1668,7 +1668,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -1676,96 +1676,96 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="4.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1786,17 +1786,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -1804,22 +1804,22 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
@@ -1827,32 +1827,32 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1876,17 +1876,17 @@
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -1894,96 +1894,96 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -2004,57 +2004,57 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
+++ b/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamim\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Felix/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="15560"/>
   </bookViews>
   <sheets>
     <sheet name="Planning and Execution" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,15 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planning and Execution'!$A$1:$O$1</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -32,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
   <si>
     <t>Priority #</t>
   </si>
@@ -438,6 +444,9 @@
   </si>
   <si>
     <t>WW01</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
@@ -524,16 +533,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1046,23 +1055,23 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="65.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="59.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="59.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" s="9" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
         <v>12</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -1124,7 +1133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -1144,7 +1153,7 @@
         <v>15</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
@@ -1154,7 +1163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -1184,7 +1193,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -1214,7 +1223,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1264,14 +1273,14 @@
         <v>15</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1298,7 +1307,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -1345,14 +1354,14 @@
         <v>15</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1377,7 +1386,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -1402,7 +1411,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1427,7 +1436,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1452,7 +1461,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -1477,7 +1486,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -1490,7 +1499,7 @@
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -1503,7 +1512,7 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -1516,7 +1525,7 @@
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -1529,7 +1538,7 @@
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -1542,7 +1551,7 @@
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -1555,7 +1564,7 @@
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -1568,7 +1577,7 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1579,7 +1588,7 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1590,7 +1599,7 @@
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1601,7 +1610,7 @@
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1612,7 +1621,7 @@
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1623,7 +1632,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1634,7 +1643,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1664,106 +1673,106 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C16" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="5.4" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:3" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="5.5" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="6" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="4.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="4.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="7.8" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="7.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C26" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="C30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C34" t="s">
         <v>39</v>
       </c>
@@ -1782,75 +1791,75 @@
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B25" t="s">
         <v>62</v>
       </c>
@@ -1869,50 +1878,50 @@
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C12" t="s">
         <v>55</v>
       </c>
@@ -1920,7 +1929,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>56</v>
       </c>
@@ -1928,7 +1937,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
         <v>51</v>
       </c>
@@ -1936,52 +1945,52 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
       <c r="C24" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
         <v>60</v>
       </c>
@@ -2000,59 +2009,59 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
         <v>74</v>
       </c>
@@ -2069,7 +2078,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
+++ b/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
   <si>
     <t>Priority #</t>
   </si>
@@ -1055,7 +1055,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1380,7 +1380,9 @@
       <c r="F11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>88</v>
@@ -1480,7 +1482,9 @@
       <c r="F15" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G15" s="2"/>
+      <c r="G15" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
         <v>88</v>

--- a/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
+++ b/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Planning and Execution" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
   <si>
     <t>Task #1</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Comment</t>
   </si>
   <si>
-    <t>Onwers</t>
-  </si>
-  <si>
     <t>Being familiar with Python</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>WW02</t>
   </si>
   <si>
-    <t>DONE?</t>
-  </si>
-  <si>
     <t>Please let me know if this task is done by now</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
   </si>
   <si>
     <t>Ting</t>
-  </si>
-  <si>
-    <t>Tina</t>
   </si>
   <si>
     <t>Xiaoqiao</t>
@@ -459,18 +450,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -478,14 +463,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -493,163 +478,25 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -658,7 +505,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -670,210 +517,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.39994506668294322"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -896,251 +557,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1160,57 +579,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1221,7 +593,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
@@ -1243,7 +615,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1281,7 +653,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1319,7 +691,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1340,7 +712,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>14</xdr:col>
@@ -1362,7 +734,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1383,7 +755,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
@@ -1405,7 +777,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1677,32 +1049,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.83333333333333" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="65.6666666666667" customWidth="1"/>
-    <col min="4" max="4" width="11.8333333333333" customWidth="1"/>
-    <col min="5" max="5" width="14.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="59.8333333333333" customWidth="1"/>
+    <col min="9" max="9" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="1" ht="14.25" spans="1:15">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1731,7 +1103,7 @@
         <v>8</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:15">
@@ -1742,26 +1114,26 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>14</v>
+      <c r="G2" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1772,26 +1144,26 @@
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>17</v>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1802,26 +1174,26 @@
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>17</v>
+      <c r="G4" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1832,26 +1204,26 @@
         <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
+      <c r="G5" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1862,29 +1234,29 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="F6" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>14</v>
+      <c r="G6" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -1892,26 +1264,26 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>17</v>
+      <c r="G7" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H7" s="6"/>
       <c r="I7" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -1919,26 +1291,26 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>17</v>
+      <c r="G8" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H8" s="6"/>
       <c r="I8" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -1946,26 +1318,26 @@
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>14</v>
+      <c r="G9" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H9" s="6"/>
       <c r="I9" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -1973,26 +1345,26 @@
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>17</v>
+      <c r="G10" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -2000,26 +1372,26 @@
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -2027,24 +1399,24 @@
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -2052,24 +1424,24 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -2077,24 +1449,24 @@
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -2102,26 +1474,26 @@
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>17</v>
+        <v>14</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>15</v>
       </c>
       <c r="H15" s="6"/>
       <c r="I15" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="6">
         <v>16</v>
       </c>
@@ -2290,444 +1662,427 @@
       <c r="I29" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O22">
-    <sortState ref="A1:O22">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <autoFilter ref="A1:O22"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3" s="2" t="s">
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="3:3">
-      <c r="C6" t="s">
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="3:3">
-      <c r="C7" t="s">
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="3:3">
-      <c r="C8" t="s">
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
+    <row r="17" spans="1:3" ht="5.45" customHeight="1"/>
+    <row r="18" spans="1:3" ht="13.35" customHeight="1">
+      <c r="C18" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1" t="s">
+    <row r="19" spans="1:3" ht="6" customHeight="1"/>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="3:3">
-      <c r="C16" t="s">
+    <row r="21" spans="1:3" ht="4.7" customHeight="1"/>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" ht="5.5" customHeight="1"/>
-    <row r="18" ht="13.25" customHeight="1" spans="3:3">
-      <c r="C18" t="s">
+    <row r="23" spans="1:3" ht="7.7" customHeight="1"/>
+    <row r="24" spans="1:3">
+      <c r="C24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" ht="6" customHeight="1"/>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row r="26" spans="1:3">
+      <c r="C26" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" ht="4.75" customHeight="1"/>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" ht="7.75" customHeight="1"/>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    <row r="30" spans="1:3">
+      <c r="C30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="3:3">
-      <c r="C26" t="s">
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3">
-      <c r="C30" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="2" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="1" t="s">
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
-      <c r="B11" t="s">
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="1" t="s">
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="2:2">
-      <c r="B15" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
-        <v>66</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" s="2" t="s">
+    <row r="11" spans="1:5">
+      <c r="E11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="2" t="s">
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+      <c r="E12" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="5:5">
-      <c r="E11" t="s">
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12" t="s">
+      <c r="E13" t="s">
         <v>73</v>
       </c>
-      <c r="E12" t="s">
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13" t="s">
+      <c r="E14" t="s">
         <v>75</v>
       </c>
-      <c r="E13" t="s">
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="3:5">
-      <c r="C14" t="s">
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
         <v>77</v>
       </c>
-      <c r="E14" t="s">
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="1" t="s">
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="3:3">
-      <c r="C24" t="s">
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="2:2">
-      <c r="B26" t="s">
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="27" spans="2:2">
-      <c r="B27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="2:2">
-      <c r="B28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
-        <v>88</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="2" t="s">
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="10" spans="1:2">
+      <c r="B10" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="2:2">
-      <c r="B12" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
-      <c r="B13" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
+++ b/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
@@ -1,28 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apatwary\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="825" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planning and Execution" sheetId="1" r:id="rId1"/>
-    <sheet name="QOR" sheetId="2" r:id="rId2"/>
-    <sheet name="QOR_Path_Details" sheetId="3" r:id="rId3"/>
-    <sheet name="Single_Path_GUI" sheetId="4" r:id="rId4"/>
-    <sheet name="Report_analysis" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId6"/>
+    <sheet name="MCMM_rpt" sheetId="8" r:id="rId2"/>
+    <sheet name="Bottleneck" sheetId="7" r:id="rId3"/>
+    <sheet name="Report_analysis" sheetId="6" r:id="rId4"/>
+    <sheet name="Diff_2_Paths" sheetId="5" r:id="rId5"/>
+    <sheet name="QOR" sheetId="2" r:id="rId6"/>
+    <sheet name="QOR_Path_Details" sheetId="3" r:id="rId7"/>
+    <sheet name="Single_Path_GUI" sheetId="4" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planning and Execution'!$A$1:$O$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planning and Execution'!$A$1:$O$20</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="156">
   <si>
     <t>Task #1</t>
   </si>
@@ -61,9 +68,6 @@
   </si>
   <si>
     <t>WW02</t>
-  </si>
-  <si>
-    <t>Please let me know if this task is done by now</t>
   </si>
   <si>
     <t>Linyi</t>
@@ -446,17 +450,276 @@
   <si>
     <t>The GUI, will show the cell names, their delays in -ve paths and the total -ve slack in all paths the cells appear and how many times the cells appeared.</t>
   </si>
+  <si>
+    <t>Difference of 2 paths with same start and end points from 2 different files</t>
+  </si>
+  <si>
+    <t>MCMM reporting: Create a GUI view of 1 report and then show same path in other reports</t>
+  </si>
+  <si>
+    <t>Linyi/Xiaoqiao</t>
+  </si>
+  <si>
+    <t>WW09</t>
+  </si>
+  <si>
+    <t>WW10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spec is on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diff_2_Paths</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Worksheet</t>
+    </r>
+  </si>
+  <si>
+    <t>Bottleneck report: Sorted list of cells/nets/slopes that contribute most on total -ve slack</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spec is on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Bottleneck</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Worksheet</t>
+    </r>
+  </si>
+  <si>
+    <t>2 files with timing reports</t>
+  </si>
+  <si>
+    <t>A start point</t>
+  </si>
+  <si>
+    <t>An end point</t>
+  </si>
+  <si>
+    <t>Find the path with a given start point and end point in 1st file</t>
+  </si>
+  <si>
+    <t>Find another path with the same start point and end point in 2nd file</t>
+  </si>
+  <si>
+    <t>Find the superset of all the cells and nets between the 2 paths from above.</t>
+  </si>
+  <si>
+    <t>For each of the cells and nets in that superset, list the same info as in 1st file which are delays, slopes, cap, etc.; if no info, keep the entries empty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In each row of cells or nets, list the similar values from delays, slopes, cap, etc. </t>
+  </si>
+  <si>
+    <t>Also, add the difference between similar values from 1st report to 2nd report in the same row</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell or net name </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delay from 1st report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delay from 2nd report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diff_delay </t>
+  </si>
+  <si>
+    <t>Output format shown for delay values; please add similar for cap, slopes, etc. as seen in each of the files:</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>Column4</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Spec is on </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MCMM_rpt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Worksheet</t>
+    </r>
+  </si>
+  <si>
+    <t>A file with timing reports</t>
+  </si>
+  <si>
+    <t>Output of this file is extended version of Report_analysis task</t>
+  </si>
+  <si>
+    <t>Here objective is to find out all attributes of design that is bottleneck to the performance or slack of timing paths.</t>
+  </si>
+  <si>
+    <t>Based on the timing report file, find out:</t>
+  </si>
+  <si>
+    <t>Extend the same now with cells with highest slopes at their outputs and contributing most to the total -ve slack.</t>
+  </si>
+  <si>
+    <t>Sorted list of cells with their total delay contribution to total -ve slack ==&gt; this  part is same as Report_analysis</t>
+  </si>
+  <si>
+    <t>Extend the same now with cells with highest caps and contributing most to the total -ve slack.</t>
+  </si>
+  <si>
+    <t>Similarly, for nets now (instead of cells).</t>
+  </si>
+  <si>
+    <t>A)</t>
+  </si>
+  <si>
+    <t>B)</t>
+  </si>
+  <si>
+    <t>C)</t>
+  </si>
+  <si>
+    <t>D)</t>
+  </si>
+  <si>
+    <t>E)</t>
+  </si>
+  <si>
+    <t>For all the above (A to D), please have a histogram to show top 10 or 20 (user defined) cells for their total contribution to delays</t>
+  </si>
+  <si>
+    <t>For all the above (A to E), please have separate GUIs to pop up.</t>
+  </si>
+  <si>
+    <t>There will be more than 1 input files with timing reports.</t>
+  </si>
+  <si>
+    <t>Have a GUI version of each of the timing reports</t>
+  </si>
+  <si>
+    <t>1 GUI per file.</t>
+  </si>
+  <si>
+    <t>For each GUI, the paths can be sorted by their start point, end point, timing slack, clock groups</t>
+  </si>
+  <si>
+    <t>Starting from 1st file and an user chosen timing path (based on start point, end point or start/end point pairs), find the same path in other files.</t>
+  </si>
+  <si>
+    <t>MCMM stands for Multi-Corner Multi-Mode</t>
+  </si>
+  <si>
+    <t>Clicking on the user chosen path in 1 GUI will highlight or show up paths matching either start or end or start/end points from the path in the 1st file in other GUI or GUIs.</t>
+  </si>
+  <si>
+    <t>The user may be given option to chose in which files to search the paths from 1st file.</t>
+  </si>
+  <si>
+    <t>A GUI to GUI interaction needs to happen here.</t>
+  </si>
+  <si>
+    <t>2nd section will have the path details for the path chosen from the 1st section.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st section will have only the start point, end point, timing slack and clock group; means 1 row for 1 path. </t>
+  </si>
+  <si>
+    <t>1st section</t>
+  </si>
+  <si>
+    <t>2nd section</t>
+  </si>
+  <si>
+    <t>3rd section</t>
+  </si>
+  <si>
+    <t>The GUI will have 3sections: please see the table diagram on the left.</t>
+  </si>
+  <si>
+    <t>1 row per path</t>
+  </si>
+  <si>
+    <t>Detailed of the path chosen from 1st section  will be seen here</t>
+  </si>
+  <si>
+    <t>3rd section will give the option to search start, end, etc. in the 1st section; paths can be grep or excluded (mean we can find the path needed, or exclude the paths we don’t want to see.</t>
+  </si>
+  <si>
+    <t>Based on the 3rd sections search, 1st section will change (meaning less paths or rows to show up).</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -495,8 +758,16 @@
       <name val="Calibri"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -533,8 +804,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -557,19 +840,99 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -578,6 +941,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -588,11 +968,57 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>175261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>115333</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1361440" y="2571750"/>
+          <a:ext cx="7434580" cy="454025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -711,7 +1137,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -743,49 +1169,6 @@
         <a:xfrm>
           <a:off x="9854565" y="88900"/>
           <a:ext cx="5408930" cy="5575300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>175261</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>115333</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1361440" y="2571750"/>
-          <a:ext cx="7434580" cy="454025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1055,26 +1438,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="76" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="59.85546875" customWidth="1"/>
+    <col min="9" max="9" width="59.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="15.75">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="15.6">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1126,12 +1509,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H2" s="6"/>
-      <c r="I2" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I2" s="6"/>
       <c r="O2" t="s">
         <v>10</v>
       </c>
@@ -1147,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
         <v>11</v>
@@ -1156,14 +1537,12 @@
         <v>12</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="6"/>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="6"/>
+      <c r="O3" t="s">
         <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1177,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>11</v>
@@ -1186,14 +1565,12 @@
         <v>12</v>
       </c>
       <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="O4" t="s">
         <v>15</v>
-      </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1207,7 +1584,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>11</v>
@@ -1216,14 +1593,12 @@
         <v>12</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H5" s="6"/>
-      <c r="I5" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I5" s="6"/>
       <c r="O5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1234,7 +1609,7 @@
         <v>2</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>10</v>
@@ -1246,14 +1621,12 @@
         <v>12</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I6" s="6"/>
       <c r="O6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1264,10 +1637,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>11</v>
@@ -1276,12 +1649,10 @@
         <v>12</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="6">
@@ -1291,10 +1662,10 @@
         <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>11</v>
@@ -1303,12 +1674,10 @@
         <v>12</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="6">
@@ -1318,10 +1687,10 @@
         <v>2</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>11</v>
@@ -1330,12 +1699,10 @@
         <v>12</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9" s="6"/>
-      <c r="I9" s="6" t="s">
-        <v>13</v>
-      </c>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="6">
@@ -1345,10 +1712,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>11</v>
@@ -1357,11 +1724,11 @@
         <v>12</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H10" s="6"/>
       <c r="I10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1372,23 +1739,23 @@
         <v>4</v>
       </c>
       <c r="C11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="F11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>14</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>15</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1399,21 +1766,21 @@
         <v>4</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1424,21 +1791,21 @@
         <v>4</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1449,21 +1816,21 @@
         <v>4</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1474,71 +1841,107 @@
         <v>5</v>
       </c>
       <c r="C15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="H15" s="6"/>
-      <c r="I15" s="6" t="s">
-        <v>24</v>
+      <c r="I15" s="16" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="6">
-        <v>16</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="6">
+        <v>6</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="I16" s="13" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="6">
-        <v>17</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="6">
+        <v>6</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="I17" s="13" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="6">
-        <v>18</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+        <v>19</v>
+      </c>
+      <c r="B18" s="6">
+        <v>6</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>99</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="13" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="6">
-        <v>19</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1547,7 +1950,7 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" s="6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -1559,9 +1962,7 @@
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="6">
-        <v>21</v>
-      </c>
+      <c r="A21" s="6"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -1572,9 +1973,7 @@
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9">
-      <c r="A22" s="6">
-        <v>22</v>
-      </c>
+      <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
@@ -1588,7 +1987,9 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
+      <c r="D23" s="6" t="s">
+        <v>97</v>
+      </c>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -1639,363 +2040,314 @@
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:O22"/>
+  <autoFilter ref="A1:O20"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="B3" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="C8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="B10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="C16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="5.45" customHeight="1"/>
-    <row r="18" spans="1:3" ht="13.35" customHeight="1">
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="6" customHeight="1"/>
-    <row r="20" spans="1:3">
-      <c r="C20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="4.7" customHeight="1"/>
-    <row r="22" spans="1:3">
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="7.7" customHeight="1"/>
-    <row r="24" spans="1:3">
-      <c r="C24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="C30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="3:3">
-      <c r="C34" t="s">
-        <v>51</v>
+    <row r="1" spans="1:17">
+      <c r="A1" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="B2" s="15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3" s="15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="15" thickBot="1">
+      <c r="B7" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="19"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="B9" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q9" s="21"/>
+    </row>
+    <row r="10" spans="1:17" ht="15" thickBot="1">
+      <c r="N10" s="20"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q10" s="24"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="B11" s="15" t="s">
+        <v>140</v>
+      </c>
+      <c r="N11" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="19"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="B12" s="15"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q12" s="21"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="B13" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q13" s="21"/>
+    </row>
+    <row r="14" spans="1:17" ht="15" thickBot="1">
+      <c r="C14" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="23"/>
+      <c r="Q14" s="24"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="C15" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="C16" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="C17" s="15"/>
+      <c r="D17" s="15" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="C18" s="15"/>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20" s="15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="D22" s="15" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="D24" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26" s="15" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="B11" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="B15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="B17" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="B19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="B23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="B25" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="15" t="s">
         <v>63</v>
       </c>
     </row>
+    <row r="3" spans="1:4">
+      <c r="B3" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="15" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="B8" s="15" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="15" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="C14" s="15" t="s">
+        <v>130</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="C16" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="C18" s="15" t="s">
+        <v>132</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="23" spans="3:4">
+      <c r="C23" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4">
+      <c r="C25" s="15" t="s">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E31"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="12" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="B3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="B4" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="B5" s="1"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="B6" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="E11" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="C12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="C13" t="s">
-        <v>72</v>
-      </c>
-      <c r="E13" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="C14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E14" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3">
-      <c r="B18" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="B14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3">
-      <c r="C22" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3">
-      <c r="C23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="24" spans="2:3">
-      <c r="C24" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3">
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="2:3">
-      <c r="B27" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="28" spans="2:3">
-      <c r="B28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="31" spans="2:3">
-      <c r="B31" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -2006,67 +2358,305 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:K26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="B13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="B19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="14" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="B25" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="B26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="H26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="5.4" customHeight="1"/>
+    <row r="18" spans="1:3" ht="13.35" customHeight="1">
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="6" customHeight="1"/>
+    <row r="20" spans="1:3">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="4.6500000000000004" customHeight="1"/>
+    <row r="22" spans="1:3">
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="7.65" customHeight="1"/>
+    <row r="24" spans="1:3">
+      <c r="C24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="C26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="C30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>76</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="B6" t="s">
-        <v>88</v>
+      <c r="A6" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="B9" t="s">
-        <v>90</v>
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="B8" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
-        <v>92</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="B11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="B13" t="s">
-        <v>93</v>
+      <c r="A13" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
-        <v>95</v>
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="B17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="B19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="B23" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="B25" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -2075,14 +2665,133 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="B3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="B4" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="B6" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="E11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="C12" t="s">
+        <v>69</v>
+      </c>
+      <c r="E12" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="C13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="C14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="C22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="C23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
+++ b/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="825" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="825"/>
   </bookViews>
   <sheets>
     <sheet name="Planning and Execution" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="156">
   <si>
     <t>Task #1</t>
   </si>
@@ -96,7 +96,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Spec is on the </t>
     </r>
@@ -106,7 +106,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>QOR</t>
     </r>
@@ -115,7 +115,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Worksheet. Linyi you have done it almost; so, I put the dates accordingly.</t>
     </r>
@@ -132,7 +132,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Spec is on the </t>
     </r>
@@ -142,7 +142,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>QOR</t>
     </r>
@@ -151,7 +151,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Worksheet</t>
     </r>
@@ -165,7 +165,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Spec is on </t>
     </r>
@@ -175,7 +175,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Single_Path_GUI</t>
     </r>
@@ -184,7 +184,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Worksheet</t>
     </r>
@@ -198,7 +198,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Spec is on </t>
     </r>
@@ -208,7 +208,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>QOR_Path_Details</t>
     </r>
@@ -217,7 +217,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Worksheet</t>
     </r>
@@ -231,7 +231,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Spec is on </t>
     </r>
@@ -241,7 +241,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>Report_Analaysis</t>
     </r>
@@ -250,7 +250,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Worksheet</t>
     </r>
@@ -485,7 +485,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Worksheet</t>
@@ -514,7 +514,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Worksheet</t>
@@ -594,7 +594,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-        <charset val="134"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> Worksheet</t>
@@ -707,7 +707,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -723,18 +723,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -742,21 +749,21 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -926,13 +933,13 @@
   </cellStyleXfs>
   <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -941,10 +948,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -954,10 +961,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1440,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1921,7 +1928,7 @@
         <v>96</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>98</v>
@@ -1939,9 +1946,7 @@
       <c r="A19" s="6">
         <v>20</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>16</v>
-      </c>
+      <c r="D19" s="16"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
       <c r="G19" s="6"/>
@@ -1987,9 +1992,7 @@
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6" t="s">
-        <v>97</v>
-      </c>
+      <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
       <c r="G23" s="6"/>
@@ -2051,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>

--- a/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
+++ b/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\apatwary\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlysm\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F94E3-CFA9-4D2F-9B64-B9270A87B5B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9408" tabRatio="825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8892" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planning and Execution" sheetId="1" r:id="rId1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="156">
   <si>
     <t>Task #1</t>
   </si>
@@ -706,7 +707,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -999,7 +1000,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1042,7 +1049,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1080,7 +1093,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1118,7 +1137,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1161,7 +1186,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1444,11 +1475,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -1930,13 +1961,15 @@
       <c r="D18" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="G18" s="6"/>
+      <c r="G18" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="H18" s="6"/>
       <c r="I18" s="13" t="s">
         <v>121</v>
@@ -2044,14 +2077,14 @@
       <c r="I27" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O20"/>
+  <autoFilter ref="A1:O20" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2199,7 +2232,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2289,7 +2322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2360,7 +2393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
@@ -2464,7 +2497,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2582,7 +2615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2669,7 +2702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
+++ b/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hlysm\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\khensu\Home02\ting3\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F3F94E3-CFA9-4D2F-9B64-B9270A87B5B5}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23016" windowHeight="8892" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17895" windowHeight="8055" tabRatio="825"/>
   </bookViews>
   <sheets>
     <sheet name="Planning and Execution" sheetId="1" r:id="rId1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
   <si>
     <t>Task #1</t>
   </si>
@@ -707,7 +706,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="9">
     <font>
       <sz val="11"/>
@@ -1475,27 +1474,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="76" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1"/>
     <col min="6" max="6" width="14" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="59.88671875" customWidth="1"/>
+    <col min="9" max="9" width="59.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="3" customFormat="1" ht="15.6">
+    <row r="1" spans="1:15" s="3" customFormat="1" ht="15.75">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1834,13 +1833,15 @@
       <c r="D13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6" t="s">
         <v>27</v>
@@ -1859,13 +1860,15 @@
       <c r="D14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G14" s="6"/>
+      <c r="G14" s="8" t="s">
+        <v>14</v>
+      </c>
       <c r="H14" s="6"/>
       <c r="I14" s="6" t="s">
         <v>29</v>
@@ -1911,13 +1914,13 @@
       <c r="D16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="G16" s="6"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="6"/>
       <c r="I16" s="13" t="s">
         <v>100</v>
@@ -2077,24 +2080,24 @@
       <c r="I27" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O20" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:O20"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="14" max="14" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="52.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
@@ -2117,7 +2120,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="15" thickBot="1">
+    <row r="7" spans="1:17" ht="15.75" thickBot="1">
       <c r="B7" s="15" t="s">
         <v>138</v>
       </c>
@@ -2139,7 +2142,7 @@
       </c>
       <c r="Q9" s="21"/>
     </row>
-    <row r="10" spans="1:17" ht="15" thickBot="1">
+    <row r="10" spans="1:17" ht="15.75" thickBot="1">
       <c r="N10" s="20"/>
       <c r="O10" s="22"/>
       <c r="P10" s="26" t="s">
@@ -2178,7 +2181,7 @@
       </c>
       <c r="Q13" s="21"/>
     </row>
-    <row r="14" spans="1:17" ht="15" thickBot="1">
+    <row r="14" spans="1:17" ht="15.75" thickBot="1">
       <c r="C14" s="15" t="s">
         <v>147</v>
       </c>
@@ -2232,14 +2235,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="15" t="s">
@@ -2322,14 +2325,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -2393,14 +2396,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K26"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="14" t="s">
@@ -2497,14 +2500,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -2559,7 +2562,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="5.4" customHeight="1"/>
+    <row r="17" spans="1:3" ht="5.45" customHeight="1"/>
     <row r="18" spans="1:3" ht="13.35" customHeight="1">
       <c r="C18" t="s">
         <v>42</v>
@@ -2571,13 +2574,13 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="4.6500000000000004" customHeight="1"/>
+    <row r="21" spans="1:3" ht="4.7" customHeight="1"/>
     <row r="22" spans="1:3">
       <c r="C22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="7.65" customHeight="1"/>
+    <row r="23" spans="1:3" ht="7.7" customHeight="1"/>
     <row r="24" spans="1:3">
       <c r="C24" t="s">
         <v>45</v>
@@ -2615,14 +2618,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
@@ -2702,14 +2705,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>

--- a/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
+++ b/Planning and Execution/Phython_GUI_Capstone_Planning_and_Progress_2018.xlsx
@@ -715,10 +715,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -759,9 +759,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -775,10 +788,33 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -791,17 +827,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -822,27 +850,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -850,15 +857,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -881,7 +880,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -890,14 +889,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,13 +967,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,67 +1129,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1057,97 +1147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,6 +1256,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1274,8 +1307,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1306,24 +1339,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1338,31 +1353,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1371,137 +1371,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1534,9 +1534,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2064,7 +2061,7 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85833333333333" defaultRowHeight="13.5"/>
@@ -2632,7 +2629,7 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="28"/>
+      <c r="I24" s="19"/>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" s="19"/>
